--- a/Metricas_Codigo/LEI-122687-Classes.xlsx
+++ b/Metricas_Codigo/LEI-122687-Classes.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3EC2F9-2C34-2C44-BFF8-4EF5BC229A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-1600" yWindow="3060" windowWidth="26660" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Class Name</t>
   </si>
@@ -106,20 +112,14 @@
     <t>WMC</t>
   </si>
   <si>
-    <t>Comentário</t>
-  </si>
-  <si>
     <t>com.example.examplefeature.PdfExporter</t>
-  </si>
-  <si>
-    <t>Bom nível de independência entre classes. Complexidade baixa e controlada. Classe com número razoável de interações (RFC moderado). Classe compacta e simples. Baixa coesão interna (LCOM elevado).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +182,213 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34717D3-DF16-704C-87DB-435CF515E537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679700" y="1041400"/>
+          <a:ext cx="7759700" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>ATFD (indica acesso a dados de outras classes), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CBO (mede o acoplamento a outras classes), classificação: regular.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CCC (medição cognitiva da complexidade), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>DIT (profundidade na hierarquia de herança), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NCSS (linhas de código não comentadas), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOA (número de atributos na classe), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOAC (metodos getters/setters.), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOC (número de sub-classes.), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOM (número total de métodos da classe), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOOM (número de métodos da classe pai que são alterados), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOPA (atributos públicos), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>RFC (número de métodos que podem ser executados em resposta a uma mensagem), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>WMC (soma da complexidade dos métodos), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>De acordo com a figura 1 da ficha 3, não há classes com valor a cima do normal.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +426,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,6 +460,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,9 +495,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,14 +671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,13 +771,11 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>31</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -594,10 +796,10 @@
         <v>43.75</v>
       </c>
       <c r="H2">
-        <v>37150.4814</v>
+        <v>37150.481399999997</v>
       </c>
       <c r="I2">
-        <v>0.3711</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="J2">
         <v>141</v>
@@ -606,7 +808,7 @@
         <v>65</v>
       </c>
       <c r="L2">
-        <v>849.1539</v>
+        <v>849.15390000000002</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -615,7 +817,7 @@
         <v>76</v>
       </c>
       <c r="O2">
-        <v>38.1841</v>
+        <v>38.184100000000001</v>
       </c>
       <c r="P2">
         <v>27</v>
@@ -661,12 +863,10 @@
       </c>
       <c r="AD2">
         <v>8</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>